--- a/150_RBP_AGO_DICER_info.xlsx
+++ b/150_RBP_AGO_DICER_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10930"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyao/Documents/NGS/full_length_intron/Paper/FLEXI_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4E8F0C-4637-FE4A-A2BD-2A5828CC81CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E242F-82C2-D740-A136-4FA6B04BFFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="150_RBP_AGO_DICER" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1889,10 +1889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2101,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2116,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2155,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2238,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2253,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2265,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2289,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
         <v>0</v>

--- a/150_RBP_AGO_DICER_info.xlsx
+++ b/150_RBP_AGO_DICER_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyao/Documents/NGS/full_length_intron/Paper/FLEXI_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E242F-82C2-D740-A136-4FA6B04BFFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEDCE49-D05B-2945-A52B-2E401812B7AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:AS153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
